--- a/image/task.xlsx
+++ b/image/task.xlsx
@@ -1352,45 +1352,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="163.1875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="164.3359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.55078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="53.26953125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="105.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="53.8359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="105.41015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/task.xlsx
+++ b/image/task.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="384">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -614,10 +614,6 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-readable explanation of task</t>
   </si>
   <si>
@@ -1155,7 +1151,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Content to use in performing the task</t>
@@ -1352,45 +1348,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="164.3359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.55078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="163.1875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="53.8359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="105.41015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="53.26953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="105.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3866,13 +3862,13 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3941,7 +3937,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3952,7 +3948,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3978,16 +3974,16 @@
         <v>123</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4036,7 +4032,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4054,7 +4050,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>192</v>
@@ -4065,11 +4061,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4091,14 +4087,14 @@
         <v>123</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4147,7 +4143,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4162,13 +4158,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -4176,7 +4172,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4199,17 +4195,17 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4258,7 +4254,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4273,13 +4269,13 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4287,7 +4283,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4310,13 +4306,13 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4367,7 +4363,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4382,13 +4378,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4396,11 +4392,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4419,17 +4415,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4478,7 +4474,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4487,19 +4483,19 @@
         <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4507,11 +4503,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4530,17 +4526,17 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4589,7 +4585,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4598,7 +4594,7 @@
         <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
@@ -4607,7 +4603,7 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4618,7 +4614,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4641,17 +4637,17 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4700,7 +4696,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4715,13 +4711,13 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
@@ -4729,7 +4725,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4755,14 +4751,14 @@
         <v>152</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4790,11 +4786,11 @@
         <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4811,7 +4807,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4826,13 +4822,13 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4840,11 +4836,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4863,19 +4859,19 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4924,7 +4920,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4939,13 +4935,13 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4953,7 +4949,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4976,17 +4972,17 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5035,7 +5031,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5050,13 +5046,13 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5064,7 +5060,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5090,13 +5086,13 @@
         <v>152</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5125,57 +5121,57 @@
         <v>156</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5201,13 +5197,13 @@
         <v>123</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5257,7 +5253,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5272,13 +5268,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5286,7 +5282,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5309,13 +5305,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5366,7 +5362,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5381,21 +5377,21 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5418,13 +5414,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5475,7 +5471,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5490,10 +5486,10 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5504,11 +5500,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5527,16 +5523,16 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5586,7 +5582,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5601,10 +5597,10 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5615,7 +5611,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5638,17 +5634,17 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5697,7 +5693,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5709,13 +5705,13 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5726,7 +5722,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5749,13 +5745,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5806,25 +5802,25 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5835,7 +5831,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5864,7 +5860,7 @@
         <v>95</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>97</v>
@@ -5917,7 +5913,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5935,7 +5931,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5946,11 +5942,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5972,10 +5968,10 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>97</v>
@@ -6030,7 +6026,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6059,7 +6055,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6082,17 +6078,17 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6141,7 +6137,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6159,7 +6155,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -6170,7 +6166,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6193,19 +6189,19 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6254,7 +6250,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6272,7 +6268,7 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6283,7 +6279,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6306,13 +6302,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6363,7 +6359,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6381,7 +6377,7 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6392,11 +6388,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6415,17 +6411,17 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6474,7 +6470,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6486,13 +6482,13 @@
         <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6503,7 +6499,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6526,13 +6522,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6583,25 +6579,25 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6612,7 +6608,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6641,7 +6637,7 @@
         <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>97</v>
@@ -6694,7 +6690,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6712,7 +6708,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6723,11 +6719,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6749,10 +6745,10 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>97</v>
@@ -6807,7 +6803,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6836,11 +6832,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6862,16 +6858,16 @@
         <v>152</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6899,7 +6895,7 @@
         <v>156</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>40</v>
@@ -6920,7 +6916,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>49</v>
@@ -6938,7 +6934,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6949,7 +6945,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6972,13 +6968,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7029,7 +7025,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>49</v>
@@ -7047,7 +7043,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -7058,7 +7054,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7081,17 +7077,17 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7140,7 +7136,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7152,13 +7148,13 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -7169,7 +7165,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7192,13 +7188,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7249,25 +7245,25 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7278,7 +7274,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7307,7 +7303,7 @@
         <v>95</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>97</v>
@@ -7360,7 +7356,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7378,7 +7374,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7389,11 +7385,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7415,10 +7411,10 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>97</v>
@@ -7473,7 +7469,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7502,11 +7498,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7528,14 +7524,14 @@
         <v>152</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7563,7 +7559,7 @@
         <v>156</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>40</v>
@@ -7584,7 +7580,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>49</v>
@@ -7602,7 +7598,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7613,7 +7609,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7636,17 +7632,17 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7695,7 +7691,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>49</v>
@@ -7713,7 +7709,7 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
